--- a/biology/Botanique/Persicaire/Persicaire.xlsx
+++ b/biology/Botanique/Persicaire/Persicaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persicaria
 Les persicaires (genre Persicaria) regroupent des plantes herbacées de la famille des Polygonacées, poussant à l'état sauvage. De nombreuses espèces de ce genre, souvent appelées renouées, étaient précédemment classées dans le genre Polygonum mais le genre Persicaria fut ensuite dissocié du genre Polygonum.
 La Renouée persicaire (Persicaria maculosa auparavant Polygonum persicaria), adventice très courante, est une des espèces les plus connues.
-En France, la Renouée perfoliée (Persicaria perfoliata (L.) H.Gross, 1913) est légalement inscrite sur la liste annexe de l'Arrêté du 14 février 2018 relatif aux espèces végétales exotiques envahissantes sur le territoire métropolitain[1].
+En France, la Renouée perfoliée (Persicaria perfoliata (L.) H.Gross, 1913) est légalement inscrite sur la liste annexe de l'Arrêté du 14 février 2018 relatif aux espèces végétales exotiques envahissantes sur le territoire métropolitain.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sens premier du grec πολύγονον - polugonon est confirmé par le synonyme πολύκαρπον - polukarpon, "qui donne de nombreux fruits". Il vient de πολύ - polu, "nombreux", et γόνος, génitif γόνου - gonos, gonou, "action d'engendrer, ce qui est engendré".
 Mais la confusion avec le sens de πολυγόνατον - polugonaton date au moins de Dioscoride. Ce nom vient de πολύ - polu, "nombreux", et γόνυ, γόνατος - gonu, gonatos, "genou, nœud (d'une tige)".Les deux sens sont mentionnés par de nombreux botanistes, mais c'est celui de "qui a de nombreux nœuds" qui se retrouve dans les noms populaires renouée, italien centinodia, anglais knotgrass, allemand Knöterich.
-Persicaire fait référence à la renouée persicaire (Polygonum persicaria) ainsi nommée, parce que ses feuilles allongées et aiguës ressemblent à celles du pêcher (persica en latin)[2].
+Persicaire fait référence à la renouée persicaire (Polygonum persicaria) ainsi nommée, parce que ses feuilles allongées et aiguës ressemblent à celles du pêcher (persica en latin).
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre compte 100 à 150 espèces parmi lesquelles :
 Persicaria affinis (Polygonum affine)
@@ -633,9 +649,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des renouées ont été consommées (jeunes pousses, feuilles et parfois graines), particulièrement la Renouée du Japon et la Renouée des buissons. Les feuilles peuvent être farcies, les jeunes pousses se consomment crues mais sont acides (présence d'acide oxalique) et sont préférables épluchées et cuites[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des renouées ont été consommées (jeunes pousses, feuilles et parfois graines), particulièrement la Renouée du Japon et la Renouée des buissons. Les feuilles peuvent être farcies, les jeunes pousses se consomment crues mais sont acides (présence d'acide oxalique) et sont préférables épluchées et cuites.
 </t>
         </is>
       </c>
@@ -664,7 +682,9 @@
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les chenilles de  papillons de nuit (hétérocères) suivants se nourrissent de renouées :
 phalène anguleuse, Timandra griseata (Geometridae),
